--- a/General/Def1b - variable selection.xlsx
+++ b/General/Def1b - variable selection.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27921"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://firstrandgroup-my.sharepoint.com/personal/wrq_rmb_co_za/Documents/Analytix/Research/Dynamic SICR/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkLife\Analytix\Research\Dynamic-SICR\IFRS9-SICR-Definitions-Logit\General\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="237" documentId="13_ncr:1_{FFDDFC6F-4CD5-4B27-ABD0-0321AC4D99C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{595A0CC7-F57A-4C69-8AAB-9C9EC2BBE409}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67BA43DA-D3EB-488B-88DA-7663110B95B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" xr2:uid="{9D6FC385-DBE1-4183-BFCB-3D03C3BB241A}"/>
+    <workbookView xWindow="1860" yWindow="1860" windowWidth="27180" windowHeight="18885" xr2:uid="{9D6FC385-DBE1-4183-BFCB-3D03C3BB241A}"/>
   </bookViews>
   <sheets>
     <sheet name="Account-level" sheetId="1" r:id="rId1"/>
@@ -104,9 +104,6 @@
     <t>X marks whether or not an input was statistically significant at 5% level after interactive selection process</t>
   </si>
   <si>
-    <t>Green-shade cells marks final inclusion as input in 'standardisation' the input space</t>
-  </si>
-  <si>
     <t>slc_pmnt_method</t>
   </si>
   <si>
@@ -162,13 +159,16 @@
   </si>
   <si>
     <t>Real income</t>
+  </si>
+  <si>
+    <t>Green-shade cells marks final inclusion as input in 'standardisation' of the input space</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -274,9 +274,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -314,7 +314,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -420,7 +420,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -562,7 +562,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -573,10 +573,10 @@
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:A11"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
@@ -595,7 +595,7 @@
     <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -642,7 +642,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -673,7 +673,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -704,7 +704,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -733,7 +733,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -764,17 +764,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C6" s="1"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -787,10 +787,10 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
@@ -807,21 +807,21 @@
     <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -835,7 +835,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -847,7 +847,7 @@
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -861,7 +861,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -886,10 +886,10 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I5"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
@@ -908,36 +908,36 @@
     <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -959,7 +959,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -981,7 +981,7 @@
       </c>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -1003,7 +1003,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1036,25 +1036,25 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>34</v>
-      </c>
       <c r="C1" s="11"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="11">
         <v>0</v>
@@ -1069,7 +1069,7 @@
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1098,9 +1098,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>16</v>
@@ -1119,9 +1119,9 @@
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>16</v>
@@ -1136,38 +1136,38 @@
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="8"/>
@@ -1178,9 +1178,9 @@
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -1191,9 +1191,9 @@
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>16</v>
